--- a/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200220.xlsx
+++ b/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200220.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\Desktop\疫情大数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E93D11-4F6C-464F-B92C-7882162DEA2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823A0A2D-0FC5-4F26-BAF4-525718DC6D24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6080" yWindow="680" windowWidth="16200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
     <definedName name="自贡市">中国各省市区县数据!$C$2043:$C$2048</definedName>
     <definedName name="遵义市">中国各省市区县数据!$C$2220:$C$2233</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9421" uniqueCount="3299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9434" uniqueCount="3300">
   <si>
     <t>统计级别</t>
   </si>
@@ -10316,6 +10316,10 @@
   </si>
   <si>
     <t>http://wjw.hubei.gov.cn/fbjd/dtyw/202002/t20200220_2141274.shtml</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>监狱系统</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10802,12 +10806,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN27"/>
+  <dimension ref="A1:AN28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="5" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="topRight" activeCell="AD3" sqref="AD3:AD20"/>
+      <selection pane="topRight" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
@@ -11082,7 +11086,7 @@
         <v>5</v>
       </c>
       <c r="M3" s="13">
-        <v>3346</v>
+        <v>3427</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12">
@@ -11158,7 +11162,7 @@
         <v>3</v>
       </c>
       <c r="M4" s="12">
-        <v>2856</v>
+        <v>2883</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12">
@@ -11234,7 +11238,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="12">
-        <v>1287</v>
+        <v>1292</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12">
@@ -11307,7 +11311,7 @@
         <v>80</v>
       </c>
       <c r="M6" s="12">
-        <v>1517</v>
+        <v>1566</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12">
@@ -11383,7 +11387,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="12">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12">
@@ -11459,7 +11463,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="12">
-        <v>974</v>
+        <v>992</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="12">
@@ -11535,7 +11539,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="12">
-        <v>895</v>
+        <v>914</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="12">
@@ -11611,7 +11615,7 @@
         <v>3</v>
       </c>
       <c r="M10" s="12">
-        <v>800</v>
+        <v>912</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12">
@@ -11687,7 +11691,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="12">
-        <v>1343</v>
+        <v>1373</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="12">
@@ -11757,7 +11761,7 @@
         <v>45</v>
       </c>
       <c r="M12" s="12">
-        <v>766</v>
+        <v>834</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="12">
@@ -11830,7 +11834,7 @@
         <v>22</v>
       </c>
       <c r="M13" s="12">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="12">
@@ -11976,7 +11980,7 @@
         <v>32</v>
       </c>
       <c r="M15" s="12">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="N15" s="12"/>
       <c r="O15" s="12">
@@ -12049,7 +12053,7 @@
         <v>10</v>
       </c>
       <c r="M16" s="12">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="12">
@@ -12249,10 +12253,15 @@
       <c r="F19" s="12" t="s">
         <v>3286</v>
       </c>
-      <c r="G19" s="20" t="s">
-        <v>3287</v>
-      </c>
-      <c r="M19" s="12"/>
+      <c r="G19" s="19" t="s">
+        <v>3299</v>
+      </c>
+      <c r="I19" s="13">
+        <v>220</v>
+      </c>
+      <c r="M19" s="12">
+        <v>220</v>
+      </c>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -12283,10 +12292,10 @@
         <v>43882.395833333336</v>
       </c>
       <c r="AE19" s="13" t="s">
-        <v>3295</v>
+        <v>3289</v>
       </c>
       <c r="AF19" s="13" t="s">
-        <v>3296</v>
+        <v>3290</v>
       </c>
       <c r="AG19" s="13" t="s">
         <v>3297</v>
@@ -12295,7 +12304,7 @@
     <row r="20" spans="1:33" ht="16" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="14" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="C20" s="14">
         <v>43881</v>
@@ -12309,129 +12318,190 @@
       <c r="F20" s="12" t="s">
         <v>3286</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="I20" s="13">
-        <f>SUM(I2:I19)</f>
-        <v>411</v>
-      </c>
-      <c r="J20" s="13">
+      <c r="G20" s="20" t="s">
+        <v>3287</v>
+      </c>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="S20" s="13" t="s">
+        <v>3288</v>
+      </c>
+      <c r="T20" s="15">
+        <v>43882.298611111109</v>
+      </c>
+      <c r="U20" s="23" t="s">
+        <v>3293</v>
+      </c>
+      <c r="V20" s="21" t="s">
+        <v>3298</v>
+      </c>
+      <c r="Z20" s="15">
+        <v>43882.354166666664</v>
+      </c>
+      <c r="AA20" s="13" t="s">
+        <v>3289</v>
+      </c>
+      <c r="AB20" s="13" t="s">
+        <v>3290</v>
+      </c>
+      <c r="AC20" s="13" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AD20" s="15">
+        <v>43882.395833333336</v>
+      </c>
+      <c r="AE20" s="13" t="s">
+        <v>3295</v>
+      </c>
+      <c r="AF20" s="13" t="s">
+        <v>3296</v>
+      </c>
+      <c r="AG20" s="13" t="s">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" ht="16" customHeight="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14" t="s">
+        <v>3292</v>
+      </c>
+      <c r="C21" s="14">
+        <v>43881</v>
+      </c>
+      <c r="D21" s="14">
+        <v>43882</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>3286</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="I21" s="13">
+        <f>SUM(I2:I20)</f>
+        <v>631</v>
+      </c>
+      <c r="J21" s="13">
         <v>628</v>
       </c>
-      <c r="K20" s="13">
-        <f>SUM(K2:K19)</f>
+      <c r="K21" s="13">
+        <f>SUM(K2:K20)</f>
         <v>1451</v>
       </c>
-      <c r="L20" s="13">
-        <f>SUM(L2:L19)</f>
+      <c r="L21" s="13">
+        <f>SUM(L2:L20)</f>
         <v>115</v>
       </c>
-      <c r="M20" s="13">
-        <f>SUM(M2:M19)</f>
-        <v>62442</v>
-      </c>
-      <c r="N20" s="13">
+      <c r="M21" s="13">
+        <f>SUM(M2:M20)</f>
+        <v>63094</v>
+      </c>
+      <c r="N21" s="13">
         <v>4084</v>
       </c>
-      <c r="O20" s="13">
-        <f>SUM(O2:O19)</f>
+      <c r="O21" s="13">
+        <f>SUM(O2:O20)</f>
         <v>11788</v>
       </c>
-      <c r="P20" s="13">
-        <f>SUM(P2:P19)</f>
+      <c r="P21" s="13">
+        <f>SUM(P2:P20)</f>
         <v>2144</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q21" s="13">
         <f>SUM(Q2:Q18)</f>
         <v>0</v>
       </c>
-      <c r="R20" s="13">
+      <c r="R21" s="13">
         <v>-1411</v>
       </c>
-      <c r="S20" s="13" t="s">
+      <c r="S21" s="13" t="s">
         <v>3288</v>
       </c>
-      <c r="T20" s="15">
+      <c r="T21" s="15">
         <v>43882.298611111109</v>
       </c>
-      <c r="U20" s="23" t="s">
+      <c r="U21" s="23" t="s">
         <v>3293</v>
       </c>
-      <c r="V20" s="21" t="s">
+      <c r="V21" s="21" t="s">
         <v>3298</v>
       </c>
-      <c r="Z20" s="15">
+      <c r="Z21" s="15">
         <v>43882.354166666664</v>
       </c>
-      <c r="AA20" s="13" t="s">
+      <c r="AA21" s="13" t="s">
         <v>3289</v>
       </c>
-      <c r="AB20" s="13" t="s">
+      <c r="AB21" s="13" t="s">
         <v>3290</v>
       </c>
-      <c r="AC20" s="13" t="s">
+      <c r="AC21" s="13" t="s">
         <v>3294</v>
       </c>
-      <c r="AD20" s="15">
+      <c r="AD21" s="15">
         <v>43882.395833333336</v>
       </c>
-      <c r="AE20" s="13" t="s">
+      <c r="AE21" s="13" t="s">
         <v>3295</v>
       </c>
-      <c r="AF20" s="13" t="s">
+      <c r="AF21" s="13" t="s">
         <v>3296</v>
       </c>
-      <c r="AG20" s="13" t="s">
+      <c r="AG21" s="13" t="s">
         <v>3297</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="16" customHeight="1">
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="25" spans="1:33">
-      <c r="N25" s="22"/>
+    <row r="22" spans="1:33" ht="16" customHeight="1">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="26" spans="1:33">
       <c r="N26" s="22"/>
     </row>
     <row r="27" spans="1:33">
       <c r="N27" s="22"/>
+    </row>
+    <row r="28" spans="1:33">
+      <c r="N28" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B21:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B22:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10:J11 N28:N1048576 K19:K20 K21:M1048576 M19:M20 K13:K17 K2:K11 I11 I2:J9 I12:J1048576 N21:N24 R20 N2:R19 O22:R1048576 O20:Q21" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10:J11 N29:N1048576 K19:K21 K22:M1048576 M19:M21 K13:K17 K2:K11 I11 I2:J9 N22:N25 R21 O21:Q22 O23:R1048576 N2:R20 I12:J1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AA2:AA1048576 AE2:AE1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE1048576 AA2:AA1048576 AK2:AK1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F2:F20" xr:uid="{CD608B5D-3F45-4EA4-9AEB-DE2D310877DB}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F2:F21" xr:uid="{CD608B5D-3F45-4EA4-9AEB-DE2D310877DB}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G21:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
-      <formula1>INDIRECT($F21)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G22:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
+      <formula1>INDIRECT($F22)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="V3:V20" r:id="rId1" display="http://wjw.hubei.gov.cn/fbjd/dtyw/202002/t20200220_2141274.shtml" xr:uid="{DE0B1A49-5E89-42CD-8390-B3666A2EB031}"/>
+    <hyperlink ref="V3:V21" r:id="rId1" display="http://wjw.hubei.gov.cn/fbjd/dtyw/202002/t20200220_2141274.shtml" xr:uid="{DE0B1A49-5E89-42CD-8390-B3666A2EB031}"/>
     <hyperlink ref="V2" r:id="rId2" xr:uid="{DE701327-10D2-48B4-B1E9-05B68F5DD68D}"/>
+    <hyperlink ref="V19" r:id="rId3" xr:uid="{E6B9D284-BEC0-43C0-8351-69E8F4499FAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -12439,7 +12509,7 @@
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
-          <xm:sqref>F21:F1048576</xm:sqref>
+          <xm:sqref>F22:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
